--- a/Data/Input/PaymentTransactionTypes.xlsx
+++ b/Data/Input/PaymentTransactionTypes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Client Projects\eShopWorld\Processes\ESWNikeDailyRefunds\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6B9620-2362-4FB9-A451-73A270C09462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C48104-E41F-4BBD-92A4-B6864C155786}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="-18120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment Types" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>eSW Return Refund</t>
   </si>
@@ -100,10 +100,46 @@
     <t>L~=IFERROR(VLOOKUP($C{0},Fraud!$C:$G,5,FALSE),"-")¶M~=IFERROR(VLOOKUP($C{0},donotprocess!$A:$B,{0},FALSE),"-")¶N~=IFERROR(VLOOKUP($C{0},'Email Refunds'!B:J,4,FALSE),"-")¶O~=IFERROR(VLOOKUP($C{0},'MR-FIN'!C:K,4,FALSE),"-")</t>
   </si>
   <si>
-    <t>K~=LOOKUP(9.9E+307,--LEFT(MID(I{0},MIN(FIND({1,2,3,4,5,6,7,8,9,0}, $I{0}&amp;"1023456789")),999),ROW(INDIRECT("1:999"))))¶L~=RIGHT(I{0},LEN(I{0})-FIND(" ",I{0},1))¶M~=IFERROR(VLOOKUP($C{0},donotprocess!$A:$B,{0},FALSE),"-")¶N~=IFERROR(VLOOKUP($C{0},Fraud!$C:$G,5,FALSE),"-")¶O~=IFERROR(VLOOKUP($C{0},MR-FINC:(E),3,FALSE),"-")</t>
-  </si>
-  <si>
-    <t>N~=IFERROR(VLOOKUP(C{0},Fraud!C:G,5,FALSE),"-")</t>
+    <t>Fraud Column</t>
+  </si>
+  <si>
+    <t>Bank Details Changed Column</t>
+  </si>
+  <si>
+    <t>M~=IFERROR(VLOOKUP(C{0},'Email Refunds'!E:H,4,FALSE),"-")¶N~=IFERROR(VLOOKUP(C{0},Fraud!C:G,5,FALSE),"-")</t>
+  </si>
+  <si>
+    <t>K~=LOOKUP(9.9E+307,--LEFT(MID(I{0},MIN(FIND({1,2,3,4,5,6,7,8,9,0}, $I{0}&amp;"1023456789")),999),ROW(INDIRECT("1:999"))))¶L~=RIGHT(I{0},LEN(I{0})-FIND(" ",I{0},1))¶M~=IFERROR(VLOOKUP($C{0},donotprocess!$A:$B,{0},FALSE),"-")¶N~=IFERROR(VLOOKUP($C{0},Fraud!$C:$G,5,FALSE),"-")¶O~=IFERROR(VLOOKUP(C{0},'Refunds - FIN'!C:E,3,0),"-")</t>
+  </si>
+  <si>
+    <t>Last Column</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>FRAUD Check</t>
+  </si>
+  <si>
+    <t>Do not process</t>
+  </si>
+  <si>
+    <t>refunded by Fraud team?</t>
+  </si>
+  <si>
+    <t>Manual refunded Yes/No</t>
+  </si>
+  <si>
+    <t>Fraud</t>
+  </si>
+  <si>
+    <t>Manual refund</t>
   </si>
 </sst>
 </file>
@@ -421,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,9 +469,12 @@
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -448,8 +487,17 @@
       <c r="D1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -462,8 +510,17 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -476,8 +533,17 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -490,8 +556,17 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -504,8 +579,17 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -518,8 +602,17 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -531,6 +624,15 @@
       </c>
       <c r="D7" t="s">
         <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -543,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D0C3AA-5529-4D71-AAA7-A99999E9619A}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +676,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -582,7 +684,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Input/PaymentTransactionTypes.xlsx
+++ b/Data/Input/PaymentTransactionTypes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Client Projects\eShopWorld\Processes\ESWNikeDailyRefunds\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C48104-E41F-4BBD-92A4-B6864C155786}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D1101F-B2C3-497F-8904-8E8B4A7AB625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment Types" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet Formulas" sheetId="2" r:id="rId2"/>
+    <sheet name="Distribution List" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>eSW Return Refund</t>
   </si>
@@ -140,16 +141,45 @@
   </si>
   <si>
     <t>Manual refund</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Purvesh Borkar</t>
+  </si>
+  <si>
+    <t>pborkar@eshopworld.com</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>hiren.patel@uipath.com</t>
+  </si>
+  <si>
+    <t>Hiren Patel</t>
+  </si>
+  <si>
+    <t>hpatel@eshopworld.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,13 +202,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -459,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -690,4 +724,61 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2925C6-D968-4F4F-941B-B3341CC9D29B}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{8A37FF82-6F6A-4A22-A8DB-8FA0CE4AF077}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{8329E57F-0B6B-4A99-A38C-B9F1C2E2B623}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{11174173-82F8-4C4C-8043-75C0928E9BA3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>
--- a/Data/Input/PaymentTransactionTypes.xlsx
+++ b/Data/Input/PaymentTransactionTypes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Client Projects\eShopWorld\Processes\ESWNikeDailyRefunds\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D1101F-B2C3-497F-8904-8E8B4A7AB625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E5A61C-8126-4F58-A566-65DE39212BA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment Types" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>eSW Return Refund</t>
   </si>
@@ -155,13 +155,28 @@
     <t>Email Address</t>
   </si>
   <si>
-    <t>hiren.patel@uipath.com</t>
-  </si>
-  <si>
     <t>Hiren Patel</t>
   </si>
   <si>
     <t>hpatel@eshopworld.com</t>
+  </si>
+  <si>
+    <t>mking@eshopworld.com</t>
+  </si>
+  <si>
+    <t>Marian King</t>
+  </si>
+  <si>
+    <t>cmacnamara@eshopworld.com</t>
+  </si>
+  <si>
+    <t>Ciara MacNamara</t>
+  </si>
+  <si>
+    <t>amccormack@eshopworld.com</t>
+  </si>
+  <si>
+    <t>Adam McCormack</t>
   </si>
 </sst>
 </file>
@@ -206,10 +221,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -728,10 +744,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2925C6-D968-4F4F-941B-B3341CC9D29B}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,36 +765,54 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{8A37FF82-6F6A-4A22-A8DB-8FA0CE4AF077}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{8329E57F-0B6B-4A99-A38C-B9F1C2E2B623}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{11174173-82F8-4C4C-8043-75C0928E9BA3}"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{8329E57F-0B6B-4A99-A38C-B9F1C2E2B623}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{11174173-82F8-4C4C-8043-75C0928E9BA3}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{60E0AFAD-D230-4158-9E94-9231808D9AD8}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{82EA9F7C-231A-46D4-B902-D33442EE119D}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{8AE62D0A-CF73-49CB-B8E1-B187B808C88D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Data/Input/PaymentTransactionTypes.xlsx
+++ b/Data/Input/PaymentTransactionTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Client Projects\eShopWorld\Processes\ESWNikeDailyRefunds\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpatel\Documents\UiPath\ESWNikeDailyRefunds\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E5A61C-8126-4F58-A566-65DE39212BA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3BC3DE-7404-4F42-8F92-15C92A9E3146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment Types" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -509,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2925C6-D968-4F4F-941B-B3341CC9D29B}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>

--- a/Data/Input/PaymentTransactionTypes.xlsx
+++ b/Data/Input/PaymentTransactionTypes.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpatel\Documents\UiPath\ESWNikeDailyRefunds\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Client Projects\eShopWorld\Processes\ESWNikeDailyRefunds\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3BC3DE-7404-4F42-8F92-15C92A9E3146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2EF0D0-A022-4A48-B62D-64E3A8DD21AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25350" yWindow="-16185" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment Types" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet Formulas" sheetId="2" r:id="rId2"/>
     <sheet name="Distribution List" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>eSW Return Refund</t>
   </si>
@@ -97,21 +98,12 @@
     <t>Formulas</t>
   </si>
   <si>
-    <t>L~=IFERROR(VLOOKUP($C{0},Fraud!$C:$G,5,FALSE),"-")¶M~=IFERROR(VLOOKUP($C{0},donotprocess!$A:$B,{0},FALSE),"-")¶N~=IFERROR(VLOOKUP($C{0},'Email Refunds'!B:J,4,FALSE),"-")¶O~=IFERROR(VLOOKUP($C{0},'MR-FIN'!C:K,4,FALSE),"-")</t>
-  </si>
-  <si>
     <t>Fraud Column</t>
   </si>
   <si>
     <t>Bank Details Changed Column</t>
   </si>
   <si>
-    <t>M~=IFERROR(VLOOKUP(C{0},'Email Refunds'!E:H,4,FALSE),"-")¶N~=IFERROR(VLOOKUP(C{0},Fraud!C:G,5,FALSE),"-")</t>
-  </si>
-  <si>
-    <t>K~=LOOKUP(9.9E+307,--LEFT(MID(I{0},MIN(FIND({1,2,3,4,5,6,7,8,9,0}, $I{0}&amp;"1023456789")),999),ROW(INDIRECT("1:999"))))¶L~=RIGHT(I{0},LEN(I{0})-FIND(" ",I{0},1))¶M~=IFERROR(VLOOKUP($C{0},donotprocess!$A:$B,{0},FALSE),"-")¶N~=IFERROR(VLOOKUP($C{0},Fraud!$C:$G,5,FALSE),"-")¶O~=IFERROR(VLOOKUP(C{0},'Refunds - FIN'!C:E,3,0),"-")</t>
-  </si>
-  <si>
     <t>Last Column</t>
   </si>
   <si>
@@ -176,6 +168,18 @@
   </si>
   <si>
     <t>Adam McCormack</t>
+  </si>
+  <si>
+    <t>hiren.patel@uipath.com</t>
+  </si>
+  <si>
+    <t>L~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶M~=IFERROR(VLOOKUP($C{0},donotprocess!$A:$B,{0},FALSE),"-")¶N~=IFERROR(VLOOKUP($C{0},'Email Refunds'!B:J,4,FALSE),"-")¶O~=IFERROR(VLOOKUP($C{0},'MR-FIN'!C:K,4,FALSE),"-")</t>
+  </si>
+  <si>
+    <t>K~=LOOKUP(9.9E+307,--LEFT(MID(I{0},MIN(FIND({1,2,3,4,5,6,7,8,9,0}, $I{0}&amp;"1023456789")),999),ROW(INDIRECT("1:999"))))¶L~=RIGHT(I{0},LEN(I{0})-FIND(" ",I{0},1))¶M~=IFERROR(VLOOKUP($C{0},donotprocess!$A:$B,{0},FALSE),"-")¶N~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶O~=IFERROR(VLOOKUP(C{0},'Refunds - FIN'!C:E,3,0),"-")</t>
+  </si>
+  <si>
+    <t>M~=IFERROR(VLOOKUP(C{0},'Email Refunds'!E:H,4,FALSE),"-")¶N~=IFERROR(VLOOKUP(TRIM(C{0}),TRIM(Fraud!C:G),5,FALSE),"-")</t>
   </si>
 </sst>
 </file>
@@ -220,11 +224,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -509,7 +514,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,13 +542,13 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
         <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -560,13 +565,13 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -583,13 +588,13 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -606,13 +611,13 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -629,13 +634,13 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -652,13 +657,13 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -675,13 +680,13 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -695,58 +700,61 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="4"/>
+    <col min="3" max="3" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
+      <c r="B3" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
+      <c r="B4" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2925C6-D968-4F4F-941B-B3341CC9D29B}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,61 +765,87 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{8329E57F-0B6B-4A99-A38C-B9F1C2E2B623}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{064768AB-A5CF-4674-93D7-B751AD9880DA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3A7D5D-58F6-4694-9A38-5139D815B897}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>35</v>
+      <c r="B1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
         <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>39</v>
+      <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{8329E57F-0B6B-4A99-A38C-B9F1C2E2B623}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{11174173-82F8-4C4C-8043-75C0928E9BA3}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{60E0AFAD-D230-4158-9E94-9231808D9AD8}"/>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{82EA9F7C-231A-46D4-B902-D33442EE119D}"/>
-    <hyperlink ref="A4" r:id="rId5" xr:uid="{8AE62D0A-CF73-49CB-B8E1-B187B808C88D}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{11174173-82F8-4C4C-8043-75C0928E9BA3}"/>
+    <hyperlink ref="A1" r:id="rId2" xr:uid="{60E0AFAD-D230-4158-9E94-9231808D9AD8}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{82EA9F7C-231A-46D4-B902-D33442EE119D}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{8AE62D0A-CF73-49CB-B8E1-B187B808C88D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Data/Input/PaymentTransactionTypes.xlsx
+++ b/Data/Input/PaymentTransactionTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Client Projects\eShopWorld\Processes\ESWNikeDailyRefunds\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Client Projects\eShopWorld\Processes\VB\ESWNikeDailyRefunds\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2EF0D0-A022-4A48-B62D-64E3A8DD21AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390866E0-BB88-415C-803A-400DE250B67D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25350" yWindow="-16185" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment Types" sheetId="1" r:id="rId1"/>
@@ -173,13 +173,13 @@
     <t>hiren.patel@uipath.com</t>
   </si>
   <si>
-    <t>L~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶M~=IFERROR(VLOOKUP($C{0},donotprocess!$A:$B,{0},FALSE),"-")¶N~=IFERROR(VLOOKUP($C{0},'Email Refunds'!B:J,4,FALSE),"-")¶O~=IFERROR(VLOOKUP($C{0},'MR-FIN'!C:K,4,FALSE),"-")</t>
-  </si>
-  <si>
-    <t>K~=LOOKUP(9.9E+307,--LEFT(MID(I{0},MIN(FIND({1,2,3,4,5,6,7,8,9,0}, $I{0}&amp;"1023456789")),999),ROW(INDIRECT("1:999"))))¶L~=RIGHT(I{0},LEN(I{0})-FIND(" ",I{0},1))¶M~=IFERROR(VLOOKUP($C{0},donotprocess!$A:$B,{0},FALSE),"-")¶N~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶O~=IFERROR(VLOOKUP(C{0},'Refunds - FIN'!C:E,3,0),"-")</t>
-  </si>
-  <si>
     <t>M~=IFERROR(VLOOKUP(C{0},'Email Refunds'!E:H,4,FALSE),"-")¶N~=IFERROR(VLOOKUP(TRIM(C{0}),TRIM(Fraud!C:G),5,FALSE),"-")</t>
+  </si>
+  <si>
+    <t>L~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶M~=IFERROR(VLOOKUP($C{0},donotprocess!$A:$B,21,FALSE),"-")¶N~=IFERROR(VLOOKUP($C{0},'Email Refunds'!B:J,4,FALSE),"-")¶O~=IFERROR(VLOOKUP($C{0},'MR-FIN'!C:K,4,FALSE),"-")</t>
+  </si>
+  <si>
+    <t>K~=LOOKUP(9.9E+307,--LEFT(MID(I{0},MIN(FIND({1,2,3,4,5,6,7,8,9,0}, $I{0}&amp;"1023456789")),999),ROW(INDIRECT("1:999"))))¶L~=RIGHT(I{0},LEN(I{0})-FIND(" ",I{0},1))¶M~=IFERROR(VLOOKUP($C{0},donotprocess!$A:$B,21,FALSE),"-")¶N~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶O~=IFERROR(VLOOKUP(C{0},'Refunds - FIN'!C:E,3,0),"-")</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -699,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D0C3AA-5529-4D71-AAA7-A99999E9619A}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +724,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -732,7 +732,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Input/PaymentTransactionTypes.xlsx
+++ b/Data/Input/PaymentTransactionTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Client Projects\eShopWorld\Processes\VB\ESWNikeDailyRefunds\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpatel\Documents\UiPath\ESWNikeDailyRefunds\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390866E0-BB88-415C-803A-400DE250B67D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA7E992-457D-43C9-B58A-046E097DC1AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment Types" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>eSW Return Refund</t>
   </si>
@@ -176,10 +176,10 @@
     <t>M~=IFERROR(VLOOKUP(C{0},'Email Refunds'!E:H,4,FALSE),"-")¶N~=IFERROR(VLOOKUP(TRIM(C{0}),TRIM(Fraud!C:G),5,FALSE),"-")</t>
   </si>
   <si>
-    <t>L~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶M~=IFERROR(VLOOKUP($C{0},donotprocess!$A:$B,21,FALSE),"-")¶N~=IFERROR(VLOOKUP($C{0},'Email Refunds'!B:J,4,FALSE),"-")¶O~=IFERROR(VLOOKUP($C{0},'MR-FIN'!C:K,4,FALSE),"-")</t>
-  </si>
-  <si>
-    <t>K~=LOOKUP(9.9E+307,--LEFT(MID(I{0},MIN(FIND({1,2,3,4,5,6,7,8,9,0}, $I{0}&amp;"1023456789")),999),ROW(INDIRECT("1:999"))))¶L~=RIGHT(I{0},LEN(I{0})-FIND(" ",I{0},1))¶M~=IFERROR(VLOOKUP($C{0},donotprocess!$A:$B,21,FALSE),"-")¶N~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶O~=IFERROR(VLOOKUP(C{0},'Refunds - FIN'!C:E,3,0),"-")</t>
+    <t>L~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶M~=IFERROR(VLOOKUP($C{0},donotprocess!$A:$B,2,FALSE),"-")¶N~=IFERROR(VLOOKUP($C{0},'Email Refunds'!B:J,4,FALSE),"-")¶O~=IFERROR(VLOOKUP($C{0},'MR-FIN'!C:K,4,FALSE),"-")</t>
+  </si>
+  <si>
+    <t>K~=LOOKUP(9.9E+307,--LEFT(MID(I{0},MIN(FIND({1,2,3,4,5,6,7,8,9,0}, $I{0}&amp;"1023456789")),999),ROW(INDIRECT("1:999"))))¶L~=RIGHT(I{0},LEN(I{0})-FIND(" ",I{0},1))¶M~=IFERROR(VLOOKUP($C{0},donotprocess!$A:$B,2,FALSE),"-")¶N~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶O~=IFERROR(VLOOKUP(C{0},'Refunds - FIN'!C:E,3,0),"-")</t>
   </si>
 </sst>
 </file>
@@ -511,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,139 +553,24 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -699,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D0C3AA-5529-4D71-AAA7-A99999E9619A}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,15 +684,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3A7D5D-58F6-4694-9A38-5139D815B897}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A11" sqref="A11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -815,7 +700,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
@@ -823,7 +708,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -831,12 +716,150 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Input/PaymentTransactionTypes.xlsx
+++ b/Data/Input/PaymentTransactionTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Client Projects\eShopWorld\Processes\VB\ESWNikeDailyRefunds\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpatel\Documents\UiPath\ESWNikeDailyRefunds\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F93C0B-BF9D-40FB-BD66-8F2E5358BF79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDFFBA1-0A5F-43A9-B850-8420432C8C0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment Types" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="48">
   <si>
     <t>eSW Return Refund</t>
   </si>
@@ -513,7 +513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -751,10 +751,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2925C6-D968-4F4F-941B-B3341CC9D29B}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,13 +787,22 @@
         <v>36</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{8329E57F-0B6B-4A99-A38C-B9F1C2E2B623}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{064768AB-A5CF-4674-93D7-B751AD9880DA}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{FCE6C293-212D-4122-9B77-4D947B18A642}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -802,7 +811,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD12"/>
+      <selection activeCell="B4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/Input/PaymentTransactionTypes.xlsx
+++ b/Data/Input/PaymentTransactionTypes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpatel\Documents\UiPath\ESWNikeDailyRefunds\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDFFBA1-0A5F-43A9-B850-8420432C8C0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD328528-D57B-496E-BE7C-AC6D7FA1DE62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment Types" sheetId="1" r:id="rId1"/>
@@ -753,7 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2925C6-D968-4F4F-941B-B3341CC9D29B}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -810,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3A7D5D-58F6-4694-9A38-5139D815B897}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/Input/PaymentTransactionTypes.xlsx
+++ b/Data/Input/PaymentTransactionTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpatel\Documents\UiPath\ESWNikeDailyRefunds\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Client Projects\eShopWorld\Processes\VB\ESWNikeDailyRefunds\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD328528-D57B-496E-BE7C-AC6D7FA1DE62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FAE0EA-299B-4AA9-B5C1-0CAD7F830020}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2670" yWindow="-15990" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment Types" sheetId="1" r:id="rId1"/>
@@ -179,7 +179,7 @@
     <t>L~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶M~=IFERROR(VLOOKUP($C{0},donotprocess!$A:$B,2,FALSE),"-")¶N~=IFERROR(VLOOKUP($C{0},'Email Refunds'!B:J,4,FALSE),"-")¶O~=IFERROR(VLOOKUP($C{0},'MR-FIN'!C:K,4,FALSE),"-")</t>
   </si>
   <si>
-    <t>K~=LOOKUP(9.9E+307,--LEFT(MID(I{0},MIN(FIND({1,2,3,4,5,6,7,8,9,0}, $I{0}&amp;"1023456789")),999),ROW(INDIRECT("1:999"))))¶L~=RIGHT(I{0},LEN(I{0})-FIND(" ",I{0},1))¶M~=IFERROR(VLOOKUP($C{0},donotprocess!$A:$B,2,FALSE),"-")¶N~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶O~=IFERROR(VLOOKUP(C{0},'Refunds - FIN'!C:E,3,0),"-")</t>
+    <t>K~=LOOKUP(9.9E+307,--LEFT(MID(I{0},MIN(FIND({1,2,3,4,5,6,7,8,9,0}, $I{0}&amp;"1023456789")),999),ROW(INDIRECT("1:999"))))¶L~=RIGHT(I{0},LEN(I{0})-FIND(" ",I{0},1))¶M~=IF(OR(C{0}=LOOKUP(C{0},donotprocess!$A:$A),C{0}=LOOKUP(C{0},'Email Refunds'!$E:$E))=TRUE,"bank details changed","-")¶N~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶O~=IFERROR(VLOOKUP(C{0},'Refunds - FIN'!C:E,3,0),"-")</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -700,7 +700,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,7 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3A7D5D-58F6-4694-9A38-5139D815B897}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>

--- a/Data/Input/PaymentTransactionTypes.xlsx
+++ b/Data/Input/PaymentTransactionTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Client Projects\eShopWorld\Processes\VB\ESWNikeDailyRefunds\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpatel\Documents\UiPath\ESWNikeDailyRefunds\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FAE0EA-299B-4AA9-B5C1-0CAD7F830020}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38D3933-2F28-4ABE-916E-1B7B86B75492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="-15990" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment Types" sheetId="1" r:id="rId1"/>
@@ -176,10 +176,10 @@
     <t>M~=IFERROR(VLOOKUP(C{0},'Email Refunds'!E:H,4,FALSE),"-")¶N~=IFERROR(VLOOKUP(TRIM(C{0}),TRIM(Fraud!C:G),5,FALSE),"-")</t>
   </si>
   <si>
-    <t>L~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶M~=IFERROR(VLOOKUP($C{0},donotprocess!$A:$B,2,FALSE),"-")¶N~=IFERROR(VLOOKUP($C{0},'Email Refunds'!B:J,4,FALSE),"-")¶O~=IFERROR(VLOOKUP($C{0},'MR-FIN'!C:K,4,FALSE),"-")</t>
-  </si>
-  <si>
-    <t>K~=LOOKUP(9.9E+307,--LEFT(MID(I{0},MIN(FIND({1,2,3,4,5,6,7,8,9,0}, $I{0}&amp;"1023456789")),999),ROW(INDIRECT("1:999"))))¶L~=RIGHT(I{0},LEN(I{0})-FIND(" ",I{0},1))¶M~=IF(OR(C{0}=LOOKUP(C{0},donotprocess!$A:$A),C{0}=LOOKUP(C{0},'Email Refunds'!$E:$E))=TRUE,"bank details changed","-")¶N~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶O~=IFERROR(VLOOKUP(C{0},'Refunds - FIN'!C:E,3,0),"-")</t>
+    <t>K~=LOOKUP(9.9E+307,--LEFT(MID(I{0},MIN(FIND({1,2,3,4,5,6,7,8,9,0}, $I{0}&amp;"1023456789")),999),ROW(INDIRECT("1:999"))))¶L~=RIGHT(I{0},LEN(I{0})-FIND(" ",I{0},1))¶M~=IFERROR(VLOOKUP($C{0},donotprocess!$A:$B,2,FALSE),"-")¶N~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶O~=IFERROR(VLOOKUP(C{0},'Refunds - FIN'!C:E,3,0),"-")</t>
+  </si>
+  <si>
+    <t>L~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶M~=IF(OR(C{0}=LOOKUP(C{0},donotprocess!$A:$A),C{0}=LOOKUP(C{0},'Email Refunds'!$E:$E))=TRUE,"bank details changed","-")¶N~=IFERROR(VLOOKUP($C{0},'Email Refunds'!B:J,4,FALSE),"-")¶O~=IFERROR(VLOOKUP($C{0},'MR-FIN'!C:K,4,FALSE),"-")</t>
   </si>
 </sst>
 </file>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D0C3AA-5529-4D71-AAA7-A99999E9619A}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +724,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -732,7 +732,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/Data/Input/PaymentTransactionTypes.xlsx
+++ b/Data/Input/PaymentTransactionTypes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpatel\Documents\UiPath\ESWNikeDailyRefunds\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38D3933-2F28-4ABE-916E-1B7B86B75492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2647E115-9276-405E-ABAE-EA2D24D03926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment Types" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="47">
   <si>
     <t>eSW Return Refund</t>
   </si>
@@ -146,12 +146,6 @@
     <t>Email Address</t>
   </si>
   <si>
-    <t>Hiren Patel</t>
-  </si>
-  <si>
-    <t>hpatel@eshopworld.com</t>
-  </si>
-  <si>
     <t>mking@eshopworld.com</t>
   </si>
   <si>
@@ -170,9 +164,6 @@
     <t>Adam McCormack</t>
   </si>
   <si>
-    <t>hiren.patel@uipath.com</t>
-  </si>
-  <si>
     <t>M~=IFERROR(VLOOKUP(C{0},'Email Refunds'!E:H,4,FALSE),"-")¶N~=IFERROR(VLOOKUP(TRIM(C{0}),TRIM(Fraud!C:G),5,FALSE),"-")</t>
   </si>
   <si>
@@ -180,6 +171,12 @@
   </si>
   <si>
     <t>L~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶M~=IF(OR(C{0}=LOOKUP(C{0},donotprocess!$A:$A),C{0}=LOOKUP(C{0},'Email Refunds'!$E:$E))=TRUE,"bank details changed","-")¶N~=IFERROR(VLOOKUP($C{0},'Email Refunds'!B:J,4,FALSE),"-")¶O~=IFERROR(VLOOKUP($C{0},'MR-FIN'!C:K,4,FALSE),"-")</t>
+  </si>
+  <si>
+    <t>bwilliams@eshopworld.com</t>
+  </si>
+  <si>
+    <t>Babajide Wiliams</t>
   </si>
 </sst>
 </file>
@@ -513,7 +510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -699,7 +696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D0C3AA-5529-4D71-AAA7-A99999E9619A}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -724,7 +721,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -732,7 +729,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -740,7 +737,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -751,10 +748,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2925C6-D968-4F4F-941B-B3341CC9D29B}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,19 +769,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>36</v>
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -795,49 +792,62 @@
         <v>33</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{8329E57F-0B6B-4A99-A38C-B9F1C2E2B623}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{064768AB-A5CF-4674-93D7-B751AD9880DA}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{FCE6C293-212D-4122-9B77-4D947B18A642}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{3C55B9EA-3DE7-46C2-96CF-FFF9645FCDF2}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{12E62AC1-951C-405E-BF86-644B7484C671}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{70C25742-C471-440E-9843-2176046FE85A}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{6A2AC785-7187-45E8-A5B3-B6909B540FCB}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{33305693-92C8-490E-897E-AAD5E4C22A95}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3A7D5D-58F6-4694-9A38-5139D815B897}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -848,55 +858,48 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -919,7 +922,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -942,30 +945,30 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -983,15 +986,39 @@
         <v>30</v>
       </c>
       <c r="G12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{11174173-82F8-4C4C-8043-75C0928E9BA3}"/>
-    <hyperlink ref="A1" r:id="rId2" xr:uid="{60E0AFAD-D230-4158-9E94-9231808D9AD8}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{60E0AFAD-D230-4158-9E94-9231808D9AD8}"/>
     <hyperlink ref="A2" r:id="rId3" xr:uid="{82EA9F7C-231A-46D4-B902-D33442EE119D}"/>
     <hyperlink ref="A3" r:id="rId4" xr:uid="{8AE62D0A-CF73-49CB-B8E1-B187B808C88D}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{4C6E8417-55BC-4C1B-8C8A-DEE5E0AA19AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Input/PaymentTransactionTypes.xlsx
+++ b/Data/Input/PaymentTransactionTypes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpatel\Documents\UiPath\ESWNikeDailyRefunds\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2647E115-9276-405E-ABAE-EA2D24D03926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC57C42-B870-41A8-B77A-959C15DA6630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment Types" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
   <si>
     <t>eSW Return Refund</t>
   </si>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,30 +550,30 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -615,75 +615,6 @@
       </c>
       <c r="G4" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Input/PaymentTransactionTypes.xlsx
+++ b/Data/Input/PaymentTransactionTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpatel\Documents\UiPath\ESWNikeDailyRefunds\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Client Projects\eShopWorld\Processes\VB\ESWNikeDailyRefunds\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC57C42-B870-41A8-B77A-959C15DA6630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F205FB-4E4E-4E0D-A6C0-9A3BCC3EDF25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment Types" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="47">
   <si>
     <t>eSW Return Refund</t>
   </si>
@@ -164,19 +164,19 @@
     <t>Adam McCormack</t>
   </si>
   <si>
-    <t>M~=IFERROR(VLOOKUP(C{0},'Email Refunds'!E:H,4,FALSE),"-")¶N~=IFERROR(VLOOKUP(TRIM(C{0}),TRIM(Fraud!C:G),5,FALSE),"-")</t>
-  </si>
-  <si>
     <t>K~=LOOKUP(9.9E+307,--LEFT(MID(I{0},MIN(FIND({1,2,3,4,5,6,7,8,9,0}, $I{0}&amp;"1023456789")),999),ROW(INDIRECT("1:999"))))¶L~=RIGHT(I{0},LEN(I{0})-FIND(" ",I{0},1))¶M~=IFERROR(VLOOKUP($C{0},donotprocess!$A:$B,2,FALSE),"-")¶N~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶O~=IFERROR(VLOOKUP(C{0},'Refunds - FIN'!C:E,3,0),"-")</t>
   </si>
   <si>
-    <t>L~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶M~=IF(OR(C{0}=LOOKUP(C{0},donotprocess!$A:$A),C{0}=LOOKUP(C{0},'Email Refunds'!$E:$E))=TRUE,"bank details changed","-")¶N~=IFERROR(VLOOKUP($C{0},'Email Refunds'!B:J,4,FALSE),"-")¶O~=IFERROR(VLOOKUP($C{0},'MR-FIN'!C:K,4,FALSE),"-")</t>
-  </si>
-  <si>
     <t>bwilliams@eshopworld.com</t>
   </si>
   <si>
     <t>Babajide Wiliams</t>
+  </si>
+  <si>
+    <t>L~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶M~=IF(OR(IFERROR(C{0}=VLOOKUP(C{0},donotprocess!$A:$A,1,0),"False"),IFERROR(C{0}=VLOOKUP(C{0},'Email Refunds'!$E:$E,1,0),"False"))=TRUE,"bank details changed","-")¶N~=IFERROR(VLOOKUP($C{0},'Email Refunds'!B:J,4,FALSE),"-")¶O~=IFERROR(VLOOKUP($C{0},'MR-FIN'!C:K,4,FALSE),"-")</t>
+  </si>
+  <si>
+    <t>M~=IF(OR(IFERROR(C{0}=VLOOKUP(C{0},donotprocess!$A:$A,1,0),"False"),IFERROR(C{0}=VLOOKUP(C{0},'Email Refunds'!$E:$E,1,0),"False"))=TRUE,"bank details changed","-")¶N~=IFERROR(VLOOKUP(TRIM(C{0}),TRIM(Fraud!C:G),5,FALSE),"-")</t>
   </si>
 </sst>
 </file>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,30 +550,30 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -615,6 +615,75 @@
       </c>
       <c r="G4" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -628,7 +697,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +721,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -660,7 +729,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -668,7 +737,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -725,10 +794,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -757,7 +826,7 @@
   <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+      <selection activeCell="A8" sqref="A8:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,10 +860,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">

--- a/Data/Input/PaymentTransactionTypes.xlsx
+++ b/Data/Input/PaymentTransactionTypes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Client Projects\eShopWorld\Processes\VB\ESWNikeDailyRefunds\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F205FB-4E4E-4E0D-A6C0-9A3BCC3EDF25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40333F80-8E27-40C0-BD20-CA19F9DEE609}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28845" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment Types" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="52">
   <si>
     <t>eSW Return Refund</t>
   </si>
@@ -146,6 +146,12 @@
     <t>Email Address</t>
   </si>
   <si>
+    <t>Hiren Patel</t>
+  </si>
+  <si>
+    <t>hpatel@eshopworld.com</t>
+  </si>
+  <si>
     <t>mking@eshopworld.com</t>
   </si>
   <si>
@@ -164,19 +170,28 @@
     <t>Adam McCormack</t>
   </si>
   <si>
+    <t>hiren.patel@uipath.com</t>
+  </si>
+  <si>
+    <t>M~=IFERROR(VLOOKUP(C{0},'Email Refunds'!E:H,4,FALSE),"-")¶N~=IFERROR(VLOOKUP(TRIM(C{0}),TRIM(Fraud!C:G),5,FALSE),"-")</t>
+  </si>
+  <si>
     <t>K~=LOOKUP(9.9E+307,--LEFT(MID(I{0},MIN(FIND({1,2,3,4,5,6,7,8,9,0}, $I{0}&amp;"1023456789")),999),ROW(INDIRECT("1:999"))))¶L~=RIGHT(I{0},LEN(I{0})-FIND(" ",I{0},1))¶M~=IFERROR(VLOOKUP($C{0},donotprocess!$A:$B,2,FALSE),"-")¶N~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶O~=IFERROR(VLOOKUP(C{0},'Refunds - FIN'!C:E,3,0),"-")</t>
   </si>
   <si>
-    <t>bwilliams@eshopworld.com</t>
-  </si>
-  <si>
-    <t>Babajide Wiliams</t>
-  </si>
-  <si>
-    <t>L~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶M~=IF(OR(IFERROR(C{0}=VLOOKUP(C{0},donotprocess!$A:$A,1,0),"False"),IFERROR(C{0}=VLOOKUP(C{0},'Email Refunds'!$E:$E,1,0),"False"))=TRUE,"bank details changed","-")¶N~=IFERROR(VLOOKUP($C{0},'Email Refunds'!B:J,4,FALSE),"-")¶O~=IFERROR(VLOOKUP($C{0},'MR-FIN'!C:K,4,FALSE),"-")</t>
-  </si>
-  <si>
-    <t>M~=IF(OR(IFERROR(C{0}=VLOOKUP(C{0},donotprocess!$A:$A,1,0),"False"),IFERROR(C{0}=VLOOKUP(C{0},'Email Refunds'!$E:$E,1,0),"False"))=TRUE,"bank details changed","-")¶N~=IFERROR(VLOOKUP(TRIM(C{0}),TRIM(Fraud!C:G),5,FALSE),"-")</t>
+    <t>L~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶M~=IF(OR(C{0}=LOOKUP(C{0},donotprocess!$A:$A),C{0}=LOOKUP(C{0},'Email Refunds'!$E:$E))=TRUE,"bank details changed","-")¶N~=IFERROR(VLOOKUP($C{0},'Email Refunds'!B:J,4,FALSE),"-")¶O~=IFERROR(VLOOKUP($C{0},'MR-FIN'!C:K,4,FALSE),"-")</t>
+  </si>
+  <si>
+    <t>Columns To Remove From Filtration</t>
+  </si>
+  <si>
+    <t>Column1,Authorisation,Processing,Status,Column2,FRAUD Check,Do not process,MR-Email,MR-Fin,Column3,Comments,Refund Date,Column4</t>
+  </si>
+  <si>
+    <t>Column1,Authorisation,Processing,Status,Column2,Column3,Manual refunded Yes/No,refunded by Fraud team?,Return Credit Memo,Column4,Refunded Yes-No,Comment,Refund Date</t>
+  </si>
+  <si>
+    <t>Authorisation,Processing,Status,Column1,Column2,Manual refund,Fraud,Column3,Refund Date</t>
   </si>
 </sst>
 </file>
@@ -508,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +540,7 @@
     <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -547,8 +562,11 @@
       <c r="G1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -570,8 +588,11 @@
       <c r="G2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -593,8 +614,11 @@
       <c r="G3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -616,8 +640,11 @@
       <c r="G4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -639,8 +666,11 @@
       <c r="G5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -662,8 +692,11 @@
       <c r="G6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -684,6 +717,9 @@
       </c>
       <c r="G7" t="s">
         <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -697,7 +733,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,7 +757,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -729,7 +765,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -737,7 +773,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -748,10 +784,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2925C6-D968-4F4F-941B-B3341CC9D29B}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,19 +805,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
+      <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -792,65 +828,55 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{3C55B9EA-3DE7-46C2-96CF-FFF9645FCDF2}"/>
-    <hyperlink ref="A6" r:id="rId2" xr:uid="{12E62AC1-951C-405E-BF86-644B7484C671}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{70C25742-C471-440E-9843-2176046FE85A}"/>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{6A2AC785-7187-45E8-A5B3-B6909B540FCB}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{33305693-92C8-490E-897E-AAD5E4C22A95}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{8329E57F-0B6B-4A99-A38C-B9F1C2E2B623}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{064768AB-A5CF-4674-93D7-B751AD9880DA}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{FCE6C293-212D-4122-9B77-4D947B18A642}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3A7D5D-58F6-4694-9A38-5139D815B897}">
-  <dimension ref="A2:G13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD13"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -858,48 +884,66 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -919,10 +963,13 @@
       <c r="G9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -942,33 +989,39 @@
       <c r="G10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -988,37 +1041,16 @@
       <c r="G12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
+      <c r="H12" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{11174173-82F8-4C4C-8043-75C0928E9BA3}"/>
-    <hyperlink ref="A6" r:id="rId2" xr:uid="{60E0AFAD-D230-4158-9E94-9231808D9AD8}"/>
+    <hyperlink ref="A1" r:id="rId2" xr:uid="{60E0AFAD-D230-4158-9E94-9231808D9AD8}"/>
     <hyperlink ref="A2" r:id="rId3" xr:uid="{82EA9F7C-231A-46D4-B902-D33442EE119D}"/>
     <hyperlink ref="A3" r:id="rId4" xr:uid="{8AE62D0A-CF73-49CB-B8E1-B187B808C88D}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{4C6E8417-55BC-4C1B-8C8A-DEE5E0AA19AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Input/PaymentTransactionTypes.xlsx
+++ b/Data/Input/PaymentTransactionTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Client Projects\eShopWorld\Processes\VB\ESWNikeDailyRefunds\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpatel\Documents\UiPath\ESWNikeDailyRefunds\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40333F80-8E27-40C0-BD20-CA19F9DEE609}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910FA90E-7B8C-439F-93E8-AF54B16C17C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28845" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment Types" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="51">
   <si>
     <t>eSW Return Refund</t>
   </si>
@@ -146,12 +146,6 @@
     <t>Email Address</t>
   </si>
   <si>
-    <t>Hiren Patel</t>
-  </si>
-  <si>
-    <t>hpatel@eshopworld.com</t>
-  </si>
-  <si>
     <t>mking@eshopworld.com</t>
   </si>
   <si>
@@ -170,16 +164,19 @@
     <t>Adam McCormack</t>
   </si>
   <si>
-    <t>hiren.patel@uipath.com</t>
-  </si>
-  <si>
-    <t>M~=IFERROR(VLOOKUP(C{0},'Email Refunds'!E:H,4,FALSE),"-")¶N~=IFERROR(VLOOKUP(TRIM(C{0}),TRIM(Fraud!C:G),5,FALSE),"-")</t>
-  </si>
-  <si>
     <t>K~=LOOKUP(9.9E+307,--LEFT(MID(I{0},MIN(FIND({1,2,3,4,5,6,7,8,9,0}, $I{0}&amp;"1023456789")),999),ROW(INDIRECT("1:999"))))¶L~=RIGHT(I{0},LEN(I{0})-FIND(" ",I{0},1))¶M~=IFERROR(VLOOKUP($C{0},donotprocess!$A:$B,2,FALSE),"-")¶N~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶O~=IFERROR(VLOOKUP(C{0},'Refunds - FIN'!C:E,3,0),"-")</t>
   </si>
   <si>
-    <t>L~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶M~=IF(OR(C{0}=LOOKUP(C{0},donotprocess!$A:$A),C{0}=LOOKUP(C{0},'Email Refunds'!$E:$E))=TRUE,"bank details changed","-")¶N~=IFERROR(VLOOKUP($C{0},'Email Refunds'!B:J,4,FALSE),"-")¶O~=IFERROR(VLOOKUP($C{0},'MR-FIN'!C:K,4,FALSE),"-")</t>
+    <t>bwilliams@eshopworld.com</t>
+  </si>
+  <si>
+    <t>Babajide Wiliams</t>
+  </si>
+  <si>
+    <t>L~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶M~=IF(OR(IFERROR(C{0}=VLOOKUP(C{0},donotprocess!$A:$A,1,0),"False"),IFERROR(C{0}=VLOOKUP(C{0},'Email Refunds'!$E:$E,1,0),"False"))=TRUE,"bank details changed","-")¶N~=IFERROR(VLOOKUP($C{0},'Email Refunds'!B:J,4,FALSE),"-")¶O~=IFERROR(VLOOKUP($C{0},'MR-FIN'!C:K,4,FALSE),"-")</t>
+  </si>
+  <si>
+    <t>M~=IF(OR(IFERROR(C{0}=VLOOKUP(C{0},donotprocess!$A:$A,1,0),"False"),IFERROR(C{0}=VLOOKUP(C{0},'Email Refunds'!$E:$E,1,0),"False"))=TRUE,"bank details changed","-")¶N~=IFERROR(VLOOKUP(TRIM(C{0}),TRIM(Fraud!C:G),5,FALSE),"-")</t>
   </si>
   <si>
     <t>Columns To Remove From Filtration</t>
@@ -523,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +537,7 @@
     <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -562,11 +559,8 @@
       <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -588,11 +582,8 @@
       <c r="G2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -614,11 +605,8 @@
       <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -640,11 +628,8 @@
       <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -666,11 +651,8 @@
       <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -692,11 +674,8 @@
       <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="H6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -717,9 +696,6 @@
       </c>
       <c r="G7" t="s">
         <v>31</v>
-      </c>
-      <c r="H7" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -733,7 +709,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +733,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -765,7 +741,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -773,7 +749,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -784,10 +760,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2925C6-D968-4F4F-941B-B3341CC9D29B}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,19 +781,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>36</v>
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -828,52 +804,63 @@
         <v>33</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{8329E57F-0B6B-4A99-A38C-B9F1C2E2B623}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{064768AB-A5CF-4674-93D7-B751AD9880DA}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{FCE6C293-212D-4122-9B77-4D947B18A642}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{3C55B9EA-3DE7-46C2-96CF-FFF9645FCDF2}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{12E62AC1-951C-405E-BF86-644B7484C671}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{70C25742-C471-440E-9843-2176046FE85A}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{6A2AC785-7187-45E8-A5B3-B6909B540FCB}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{33305693-92C8-490E-897E-AAD5E4C22A95}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3A7D5D-58F6-4694-9A38-5139D815B897}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A2:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="A8" sqref="A8:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -884,66 +871,56 @@
         <v>33</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
-        <v>48</v>
+      <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -964,12 +941,12 @@
         <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -990,38 +967,38 @@
         <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1042,15 +1019,42 @@
         <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{11174173-82F8-4C4C-8043-75C0928E9BA3}"/>
-    <hyperlink ref="A1" r:id="rId2" xr:uid="{60E0AFAD-D230-4158-9E94-9231808D9AD8}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{60E0AFAD-D230-4158-9E94-9231808D9AD8}"/>
     <hyperlink ref="A2" r:id="rId3" xr:uid="{82EA9F7C-231A-46D4-B902-D33442EE119D}"/>
     <hyperlink ref="A3" r:id="rId4" xr:uid="{8AE62D0A-CF73-49CB-B8E1-B187B808C88D}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{4C6E8417-55BC-4C1B-8C8A-DEE5E0AA19AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Input/PaymentTransactionTypes.xlsx
+++ b/Data/Input/PaymentTransactionTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpatel\Documents\UiPath\ESWNikeDailyRefunds\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Client Projects\eShopWorld\Processes\VB\ESWNikeDailyRefunds\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910FA90E-7B8C-439F-93E8-AF54B16C17C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240CDE17-9C49-4B6E-8CD9-B41AB5D440CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment Types" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="51">
   <si>
     <t>eSW Return Refund</t>
   </si>
@@ -167,12 +167,6 @@
     <t>K~=LOOKUP(9.9E+307,--LEFT(MID(I{0},MIN(FIND({1,2,3,4,5,6,7,8,9,0}, $I{0}&amp;"1023456789")),999),ROW(INDIRECT("1:999"))))¶L~=RIGHT(I{0},LEN(I{0})-FIND(" ",I{0},1))¶M~=IFERROR(VLOOKUP($C{0},donotprocess!$A:$B,2,FALSE),"-")¶N~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶O~=IFERROR(VLOOKUP(C{0},'Refunds - FIN'!C:E,3,0),"-")</t>
   </si>
   <si>
-    <t>bwilliams@eshopworld.com</t>
-  </si>
-  <si>
-    <t>Babajide Wiliams</t>
-  </si>
-  <si>
     <t>L~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶M~=IF(OR(IFERROR(C{0}=VLOOKUP(C{0},donotprocess!$A:$A,1,0),"False"),IFERROR(C{0}=VLOOKUP(C{0},'Email Refunds'!$E:$E,1,0),"False"))=TRUE,"bank details changed","-")¶N~=IFERROR(VLOOKUP($C{0},'Email Refunds'!B:J,4,FALSE),"-")¶O~=IFERROR(VLOOKUP($C{0},'MR-FIN'!C:K,4,FALSE),"-")</t>
   </si>
   <si>
@@ -189,6 +183,12 @@
   </si>
   <si>
     <t>Authorisation,Processing,Status,Column1,Column2,Manual refund,Fraud,Column3,Refund Date</t>
+  </si>
+  <si>
+    <t>hiren.patel@uipath.com</t>
+  </si>
+  <si>
+    <t>Hiren Patel</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -733,7 +733,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -749,7 +749,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -760,10 +760,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2925C6-D968-4F4F-941B-B3341CC9D29B}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,55 +781,28 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{3C55B9EA-3DE7-46C2-96CF-FFF9645FCDF2}"/>
-    <hyperlink ref="A6" r:id="rId2" xr:uid="{12E62AC1-951C-405E-BF86-644B7484C671}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{70C25742-C471-440E-9843-2176046FE85A}"/>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{6A2AC785-7187-45E8-A5B3-B6909B540FCB}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{33305693-92C8-490E-897E-AAD5E4C22A95}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{3C55B9EA-3DE7-46C2-96CF-FFF9645FCDF2}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{A2C68456-54C4-4B38-A15E-019E1EA615CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -838,7 +811,7 @@
   <dimension ref="A2:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G13"/>
+      <selection activeCell="B4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,12 +845,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -889,7 +858,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -915,7 +884,7 @@
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -941,7 +910,7 @@
         <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -967,7 +936,7 @@
         <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -993,7 +962,7 @@
         <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1019,7 +988,7 @@
         <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1045,7 +1014,7 @@
         <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1023,6 @@
     <hyperlink ref="A6" r:id="rId2" xr:uid="{60E0AFAD-D230-4158-9E94-9231808D9AD8}"/>
     <hyperlink ref="A2" r:id="rId3" xr:uid="{82EA9F7C-231A-46D4-B902-D33442EE119D}"/>
     <hyperlink ref="A3" r:id="rId4" xr:uid="{8AE62D0A-CF73-49CB-B8E1-B187B808C88D}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{4C6E8417-55BC-4C1B-8C8A-DEE5E0AA19AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Input/PaymentTransactionTypes.xlsx
+++ b/Data/Input/PaymentTransactionTypes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Client Projects\eShopWorld\Processes\VB\ESWNikeDailyRefunds\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240CDE17-9C49-4B6E-8CD9-B41AB5D440CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726DDD29-C87E-4A93-944D-F697E28FDE16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment Types" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="51">
   <si>
     <t>eSW Return Refund</t>
   </si>
@@ -522,7 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -760,10 +760,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2925C6-D968-4F4F-941B-B3341CC9D29B}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,21 +788,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{3C55B9EA-3DE7-46C2-96CF-FFF9645FCDF2}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{A2C68456-54C4-4B38-A15E-019E1EA615CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Data/Input/PaymentTransactionTypes.xlsx
+++ b/Data/Input/PaymentTransactionTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Client Projects\eShopWorld\Processes\VB\ESWNikeDailyRefunds\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpatel\Documents\UiPath\ESWNikeDailyRefunds\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726DDD29-C87E-4A93-944D-F697E28FDE16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F342280-2844-4E7A-9587-721C7DB2F87A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment Types" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="51">
   <si>
     <t>eSW Return Refund</t>
   </si>
@@ -185,10 +185,10 @@
     <t>Authorisation,Processing,Status,Column1,Column2,Manual refund,Fraud,Column3,Refund Date</t>
   </si>
   <si>
-    <t>hiren.patel@uipath.com</t>
-  </si>
-  <si>
-    <t>Hiren Patel</t>
+    <t>cpujol@eshopworld.com</t>
+  </si>
+  <si>
+    <t>Carles Pujol</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -760,10 +760,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2925C6-D968-4F4F-941B-B3341CC9D29B}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,19 +781,54 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{3C55B9EA-3DE7-46C2-96CF-FFF9645FCDF2}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{75D60CB4-F1FB-4716-B224-0E7A089AB8E8}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{C17DC050-DAEA-4B60-9E67-FA991BD7DE74}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{15077B50-E36C-44CA-9F39-4E2A0A2A991B}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{3870C29F-0BA4-4F57-92F6-AA67C7161BF0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -802,7 +837,7 @@
   <dimension ref="A2:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:B4"/>
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/Input/PaymentTransactionTypes.xlsx
+++ b/Data/Input/PaymentTransactionTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpatel\Documents\UiPath\ESWNikeDailyRefunds\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Client Projects\eShopWorld\Processes\VB\ESWNikeDailyRefunds\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F342280-2844-4E7A-9587-721C7DB2F87A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036E202E-3AC0-4F86-AEB4-DF814C918328}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment Types" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="53">
   <si>
     <t>eSW Return Refund</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>Carles Pujol</t>
+  </si>
+  <si>
+    <t>nmathew@eshopworld.com</t>
+  </si>
+  <si>
+    <t>Nimisha Mathew</t>
   </si>
 </sst>
 </file>
@@ -760,10 +766,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2925C6-D968-4F4F-941B-B3341CC9D29B}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,51 +787,59 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>34</v>
+      <c r="A4" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{75D60CB4-F1FB-4716-B224-0E7A089AB8E8}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{C17DC050-DAEA-4B60-9E67-FA991BD7DE74}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{15077B50-E36C-44CA-9F39-4E2A0A2A991B}"/>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{3870C29F-0BA4-4F57-92F6-AA67C7161BF0}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{75D60CB4-F1FB-4716-B224-0E7A089AB8E8}"/>
+    <hyperlink ref="A7" r:id="rId2" xr:uid="{C17DC050-DAEA-4B60-9E67-FA991BD7DE74}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{15077B50-E36C-44CA-9F39-4E2A0A2A991B}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{3870C29F-0BA4-4F57-92F6-AA67C7161BF0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
